--- a/schematic/fabrication/delay_pedal-bom.xlsx
+++ b/schematic/fabrication/delay_pedal-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.susanto\Project\delay-pedal\schematic\fabrication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACDC88E-6666-4EC7-8293-68EEFFFAD7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00DCA4-57BE-49B1-980C-85D51F675B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2835" windowWidth="21600" windowHeight="12645" xr2:uid="{EABE90FD-E351-43CA-B0A1-85B642B28A1F}"/>
+    <workbookView xWindow="2715" yWindow="2985" windowWidth="21600" windowHeight="12645" xr2:uid="{EABE90FD-E351-43CA-B0A1-85B642B28A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Part Selection - PCB BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="180">
   <si>
     <t>Op-amp</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>1206</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1456,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,7 +1578,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
         <v>97</v>
@@ -1626,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
         <v>100</v>
@@ -2051,7 +2054,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
         <v>125</v>
